--- a/KM5c_data/IODP_Site_U1417.xlsx
+++ b/KM5c_data/IODP_Site_U1417.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>7.060546161</v>
+        <v>7.21</v>
       </c>
       <c r="Q2">
-        <v>3.021688008999999</v>
+        <v>2.867240799096137</v>
       </c>
       <c r="R2">
-        <v>2.436270851999999</v>
+        <v>2.281823642096137</v>
       </c>
       <c r="S2">
         <v>-1.372311284545454</v>
